--- a/nmadb/501376.xlsx
+++ b/nmadb/501376.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="9465" yWindow="-15" windowWidth="9510" windowHeight="9135"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'original data'!$A$1:$G$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'re-formatted data'!$B$1:$L$175</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -678,8 +678,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,7 +776,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -850,7 +850,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -885,7 +884,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1061,14 +1059,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="24.140625" style="7" bestFit="1" customWidth="1"/>
@@ -1082,7 +1080,7 @@
     <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
         <v>200</v>
       </c>
@@ -1114,7 +1112,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>202</v>
       </c>
@@ -1144,9 +1142,12 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="B3" s="7" t="s">
         <v>115</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
       </c>
       <c r="D3" s="7">
         <v>14</v>
@@ -1168,7 +1169,7 @@
       <c r="K3"/>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="7">
         <v>2000</v>
       </c>
@@ -1198,9 +1199,12 @@
       <c r="K4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="7" t="s">
         <v>127</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
       </c>
       <c r="D5" s="7">
         <v>7</v>
@@ -1222,7 +1226,7 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="7">
         <v>1999</v>
       </c>
@@ -1252,9 +1256,12 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7" s="7" t="s">
         <v>128</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
@@ -1276,7 +1283,7 @@
       <c r="K7"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="7">
         <v>2005</v>
       </c>
@@ -1306,9 +1313,12 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="B9" s="7" t="s">
         <v>129</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
       </c>
       <c r="D9" s="7">
         <v>6</v>
@@ -1330,7 +1340,7 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="7">
         <v>1994</v>
       </c>
@@ -1360,9 +1370,12 @@
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="B11" s="7" t="s">
         <v>130</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5</v>
       </c>
       <c r="D11" s="7">
         <v>12</v>
@@ -1384,7 +1397,7 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="7">
         <v>2006</v>
       </c>
@@ -1414,9 +1427,12 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="B13" s="7" t="s">
         <v>131</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6</v>
       </c>
       <c r="D13" s="7">
         <v>4</v>
@@ -1438,7 +1454,7 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="7">
         <v>2000</v>
       </c>
@@ -1468,9 +1484,12 @@
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" s="7" t="s">
         <v>132</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7</v>
       </c>
       <c r="D15" s="7">
         <v>3</v>
@@ -1492,7 +1511,7 @@
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="7">
         <v>1993</v>
       </c>
@@ -1522,9 +1541,12 @@
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" s="7" t="s">
         <v>133</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8</v>
       </c>
       <c r="D17" s="7">
         <v>12</v>
@@ -1546,7 +1568,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="7">
         <v>2003</v>
       </c>
@@ -1576,9 +1598,12 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="B19" s="7" t="s">
         <v>134</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9</v>
       </c>
       <c r="D19" s="7">
         <v>7</v>
@@ -1600,7 +1625,7 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="7">
         <v>2000</v>
       </c>
@@ -1626,9 +1651,12 @@
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="B21" s="7" t="s">
         <v>135</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10</v>
       </c>
       <c r="D21" s="7">
         <v>6</v>
@@ -1646,7 +1674,7 @@
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="7">
         <v>2004</v>
       </c>
@@ -1672,9 +1700,12 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="B23" s="7" t="s">
         <v>136</v>
+      </c>
+      <c r="C23" s="7">
+        <v>11</v>
       </c>
       <c r="D23" s="7">
         <v>4</v>
@@ -1692,7 +1723,7 @@
       <c r="K23"/>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="7">
         <v>2004</v>
       </c>
@@ -1718,9 +1749,12 @@
       <c r="K24"/>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="B25" s="7" t="s">
         <v>137</v>
+      </c>
+      <c r="C25" s="7">
+        <v>12</v>
       </c>
       <c r="D25" s="7">
         <v>12</v>
@@ -1738,7 +1772,7 @@
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="7">
         <v>2009</v>
       </c>
@@ -1764,9 +1798,12 @@
       <c r="K26"/>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="B27" s="7" t="s">
         <v>138</v>
+      </c>
+      <c r="C27" s="7">
+        <v>13</v>
       </c>
       <c r="D27" s="7">
         <v>3</v>
@@ -1784,7 +1821,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="7">
         <v>2006</v>
       </c>
@@ -1810,9 +1847,12 @@
       <c r="K28"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="7" t="s">
         <v>139</v>
+      </c>
+      <c r="C29" s="7">
+        <v>14</v>
       </c>
       <c r="D29" s="7">
         <v>4</v>
@@ -1830,7 +1870,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="7">
         <v>2000</v>
       </c>
@@ -1856,9 +1896,12 @@
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="B31" s="7" t="s">
         <v>140</v>
+      </c>
+      <c r="C31" s="7">
+        <v>15</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
@@ -1876,7 +1919,7 @@
       <c r="K31"/>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="7">
         <v>2002</v>
       </c>
@@ -1902,9 +1945,12 @@
       <c r="K32"/>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="B33" s="7" t="s">
         <v>141</v>
+      </c>
+      <c r="C33" s="7">
+        <v>16</v>
       </c>
       <c r="D33" s="7">
         <v>3</v>
@@ -1922,7 +1968,7 @@
       <c r="K33"/>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="7">
         <v>1994</v>
       </c>
@@ -1948,9 +1994,12 @@
       <c r="K34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="B35" s="7" t="s">
         <v>142</v>
+      </c>
+      <c r="C35" s="7">
+        <v>17</v>
       </c>
       <c r="D35" s="7">
         <v>2</v>
@@ -1968,7 +2017,7 @@
       <c r="K35"/>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="7">
         <v>2005</v>
       </c>
@@ -1994,9 +2043,12 @@
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="B37" s="7" t="s">
         <v>143</v>
+      </c>
+      <c r="C37" s="7">
+        <v>18</v>
       </c>
       <c r="D37" s="7">
         <v>8</v>
@@ -2014,7 +2066,7 @@
       <c r="K37"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="7">
         <v>1998</v>
       </c>
@@ -2040,9 +2092,12 @@
       <c r="K38"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="B39" s="7" t="s">
         <v>144</v>
+      </c>
+      <c r="C39" s="7">
+        <v>19</v>
       </c>
       <c r="D39" s="7">
         <v>2</v>
@@ -2060,7 +2115,7 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="7">
         <v>2002</v>
       </c>
@@ -2086,9 +2141,12 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="B41" s="7" t="s">
         <v>145</v>
+      </c>
+      <c r="C41" s="7">
+        <v>20</v>
       </c>
       <c r="D41" s="7">
         <v>2</v>
@@ -2106,7 +2164,7 @@
       <c r="K41"/>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="7">
         <v>2004</v>
       </c>
@@ -2132,9 +2190,12 @@
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="B43" s="7" t="s">
         <v>146</v>
+      </c>
+      <c r="C43" s="7">
+        <v>21</v>
       </c>
       <c r="D43" s="7">
         <v>11</v>
@@ -2152,7 +2213,7 @@
       <c r="K43"/>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="7">
         <v>1993</v>
       </c>
@@ -2178,9 +2239,12 @@
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="B45" s="7" t="s">
         <v>147</v>
+      </c>
+      <c r="C45" s="7">
+        <v>22</v>
       </c>
       <c r="D45" s="7">
         <v>3</v>
@@ -2198,7 +2262,7 @@
       <c r="K45"/>
       <c r="L45"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="7">
         <v>1996</v>
       </c>
@@ -2224,9 +2288,12 @@
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="B47" s="7" t="s">
         <v>148</v>
+      </c>
+      <c r="C47" s="7">
+        <v>23</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
@@ -2244,7 +2311,7 @@
       <c r="K47"/>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="7">
         <v>2001</v>
       </c>
@@ -2270,9 +2337,12 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="B49" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C49" s="7">
+        <v>24</v>
       </c>
       <c r="D49" s="7">
         <v>3</v>
@@ -2290,7 +2360,7 @@
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="7">
         <v>1993</v>
       </c>
@@ -2316,9 +2386,12 @@
       <c r="K50"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="B51" s="7" t="s">
         <v>150</v>
+      </c>
+      <c r="C51" s="7">
+        <v>25</v>
       </c>
       <c r="D51" s="7">
         <v>3</v>
@@ -2336,7 +2409,7 @@
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="7">
         <v>2000</v>
       </c>
@@ -2362,9 +2435,12 @@
       <c r="K52"/>
       <c r="L52"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="B53" s="7" t="s">
         <v>151</v>
+      </c>
+      <c r="C53" s="7">
+        <v>26</v>
       </c>
       <c r="D53" s="7">
         <v>13</v>
@@ -2382,7 +2458,7 @@
       <c r="K53"/>
       <c r="L53"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="7">
         <v>1994</v>
       </c>
@@ -2408,9 +2484,12 @@
       <c r="K54"/>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="B55" s="7" t="s">
         <v>152</v>
+      </c>
+      <c r="C55" s="7">
+        <v>27</v>
       </c>
       <c r="D55" s="7">
         <v>3</v>
@@ -2428,7 +2507,7 @@
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="7">
         <v>2002</v>
       </c>
@@ -2454,9 +2533,12 @@
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="B57" s="7" t="s">
         <v>153</v>
+      </c>
+      <c r="C57" s="7">
+        <v>28</v>
       </c>
       <c r="D57" s="7">
         <v>11</v>
@@ -2474,7 +2556,7 @@
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="7">
         <v>2004</v>
       </c>
@@ -2500,9 +2582,12 @@
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="B59" s="7" t="s">
         <v>153</v>
+      </c>
+      <c r="C59" s="7">
+        <v>29</v>
       </c>
       <c r="D59" s="7">
         <v>11</v>
@@ -2520,7 +2605,7 @@
       <c r="K59"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="7">
         <v>2001</v>
       </c>
@@ -2546,9 +2631,12 @@
       <c r="K60"/>
       <c r="L60"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="B61" s="7" t="s">
         <v>154</v>
+      </c>
+      <c r="C61" s="7">
+        <v>30</v>
       </c>
       <c r="D61" s="7">
         <v>6</v>
@@ -2566,7 +2654,7 @@
       <c r="K61"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="7">
         <v>1998</v>
       </c>
@@ -2592,9 +2680,12 @@
       <c r="K62"/>
       <c r="L62"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="B63" s="7" t="s">
         <v>155</v>
+      </c>
+      <c r="C63" s="7">
+        <v>31</v>
       </c>
       <c r="D63" s="7">
         <v>9</v>
@@ -2612,7 +2703,7 @@
       <c r="K63"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="7">
         <v>1996</v>
       </c>
@@ -2638,9 +2729,12 @@
       <c r="K64"/>
       <c r="L64"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="B65" s="7" t="s">
         <v>156</v>
+      </c>
+      <c r="C65" s="7">
+        <v>32</v>
       </c>
       <c r="D65" s="7">
         <v>9</v>
@@ -2658,7 +2752,7 @@
       <c r="K65"/>
       <c r="L65"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="7" t="s">
         <v>202</v>
       </c>
@@ -2684,9 +2778,12 @@
       <c r="K66"/>
       <c r="L66"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="B67" s="7" t="s">
         <v>63</v>
+      </c>
+      <c r="C67" s="7">
+        <v>33</v>
       </c>
       <c r="D67" s="7">
         <v>11</v>
@@ -2704,7 +2801,7 @@
       <c r="K67"/>
       <c r="L67"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="7">
         <v>2003</v>
       </c>
@@ -2730,9 +2827,12 @@
       <c r="K68"/>
       <c r="L68"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="B69" s="7" t="s">
         <v>157</v>
+      </c>
+      <c r="C69" s="7">
+        <v>34</v>
       </c>
       <c r="D69" s="7">
         <v>6</v>
@@ -2750,7 +2850,7 @@
       <c r="K69"/>
       <c r="L69"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="7">
         <v>2006</v>
       </c>
@@ -2776,9 +2876,12 @@
       <c r="K70"/>
       <c r="L70"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="B71" s="7" t="s">
         <v>158</v>
+      </c>
+      <c r="C71" s="7">
+        <v>35</v>
       </c>
       <c r="D71" s="7">
         <v>11</v>
@@ -2796,7 +2899,7 @@
       <c r="K71"/>
       <c r="L71"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="7">
         <v>2005</v>
       </c>
@@ -2822,9 +2925,12 @@
       <c r="K72"/>
       <c r="L72"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="B73" s="7" t="s">
         <v>159</v>
+      </c>
+      <c r="C73" s="7">
+        <v>36</v>
       </c>
       <c r="D73" s="7">
         <v>4</v>
@@ -2842,7 +2948,7 @@
       <c r="K73"/>
       <c r="L73"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="7">
         <v>1998</v>
       </c>
@@ -2868,9 +2974,12 @@
       <c r="K74"/>
       <c r="L74"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="B75" s="7" t="s">
         <v>160</v>
+      </c>
+      <c r="C75" s="7">
+        <v>37</v>
       </c>
       <c r="D75" s="7">
         <v>12</v>
@@ -2888,7 +2997,7 @@
       <c r="K75"/>
       <c r="L75"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="7">
         <v>2007</v>
       </c>
@@ -2914,9 +3023,12 @@
       <c r="K76"/>
       <c r="L76"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="B77" s="7" t="s">
         <v>160</v>
+      </c>
+      <c r="C77" s="7">
+        <v>38</v>
       </c>
       <c r="D77" s="7">
         <v>2</v>
@@ -2934,7 +3046,7 @@
       <c r="K77"/>
       <c r="L77"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="7">
         <v>2007</v>
       </c>
@@ -2960,9 +3072,12 @@
       <c r="K78"/>
       <c r="L78"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="B79" s="7" t="s">
         <v>161</v>
+      </c>
+      <c r="C79" s="7">
+        <v>39</v>
       </c>
       <c r="D79" s="7">
         <v>11</v>
@@ -2980,7 +3095,7 @@
       <c r="K79"/>
       <c r="L79"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="7">
         <v>1998</v>
       </c>
@@ -3006,9 +3121,12 @@
       <c r="K80"/>
       <c r="L80"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="B81" s="7" t="s">
         <v>121</v>
+      </c>
+      <c r="C81" s="7">
+        <v>40</v>
       </c>
       <c r="D81" s="7">
         <v>2</v>
@@ -3026,7 +3144,7 @@
       <c r="K81"/>
       <c r="L81"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="7">
         <v>1998</v>
       </c>
@@ -3052,9 +3170,12 @@
       <c r="K82"/>
       <c r="L82"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="B83" s="7" t="s">
         <v>162</v>
+      </c>
+      <c r="C83" s="7">
+        <v>41</v>
       </c>
       <c r="D83" s="7">
         <v>13</v>
@@ -3072,7 +3193,7 @@
       <c r="K83"/>
       <c r="L83"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="7">
         <v>1991</v>
       </c>
@@ -3098,9 +3219,12 @@
       <c r="K84"/>
       <c r="L84"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="B85" s="7" t="s">
         <v>163</v>
+      </c>
+      <c r="C85" s="7">
+        <v>42</v>
       </c>
       <c r="D85" s="7">
         <v>16</v>
@@ -3118,7 +3242,7 @@
       <c r="K85"/>
       <c r="L85"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="7">
         <v>2007</v>
       </c>
@@ -3144,9 +3268,12 @@
       <c r="K86"/>
       <c r="L86"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="B87" s="7" t="s">
         <v>164</v>
+      </c>
+      <c r="C87" s="7">
+        <v>43</v>
       </c>
       <c r="D87" s="7">
         <v>11</v>
@@ -3164,7 +3291,7 @@
       <c r="K87"/>
       <c r="L87"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="7">
         <v>2001</v>
       </c>
@@ -3190,9 +3317,12 @@
       <c r="K88"/>
       <c r="L88"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="B89" s="7" t="s">
         <v>165</v>
+      </c>
+      <c r="C89" s="7">
+        <v>44</v>
       </c>
       <c r="D89" s="7">
         <v>8</v>
@@ -3210,7 +3340,7 @@
       <c r="K89"/>
       <c r="L89"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="7">
         <v>2003</v>
       </c>
@@ -3236,9 +3366,12 @@
       <c r="K90"/>
       <c r="L90"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="B91" s="7" t="s">
         <v>166</v>
+      </c>
+      <c r="C91" s="7">
+        <v>45</v>
       </c>
       <c r="D91" s="7">
         <v>8</v>
@@ -3256,7 +3389,7 @@
       <c r="K91"/>
       <c r="L91"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="7">
         <v>1998</v>
       </c>
@@ -3282,9 +3415,12 @@
       <c r="K92"/>
       <c r="L92"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="B93" s="7" t="s">
         <v>167</v>
+      </c>
+      <c r="C93" s="7">
+        <v>46</v>
       </c>
       <c r="D93" s="7">
         <v>3</v>
@@ -3302,7 +3438,7 @@
       <c r="K93"/>
       <c r="L93"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="7">
         <v>2002</v>
       </c>
@@ -3328,9 +3464,12 @@
       <c r="K94"/>
       <c r="L94"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="B95" s="7" t="s">
         <v>122</v>
+      </c>
+      <c r="C95" s="7">
+        <v>47</v>
       </c>
       <c r="D95" s="7">
         <v>2</v>
@@ -3348,7 +3487,7 @@
       <c r="K95"/>
       <c r="L95"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="7">
         <v>2000</v>
       </c>
@@ -3374,9 +3513,12 @@
       <c r="K96"/>
       <c r="L96"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="B97" s="7" t="s">
         <v>168</v>
+      </c>
+      <c r="C97" s="7">
+        <v>48</v>
       </c>
       <c r="D97" s="7">
         <v>7</v>
@@ -3394,7 +3536,7 @@
       <c r="K97"/>
       <c r="L97"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="7">
         <v>2004</v>
       </c>
@@ -3420,9 +3562,12 @@
       <c r="K98"/>
       <c r="L98"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="B99" s="7" t="s">
         <v>169</v>
+      </c>
+      <c r="C99" s="7">
+        <v>49</v>
       </c>
       <c r="D99" s="7">
         <v>4</v>
@@ -3440,7 +3585,7 @@
       <c r="K99"/>
       <c r="L99"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="7">
         <v>1996</v>
       </c>
@@ -3466,9 +3611,12 @@
       <c r="K100"/>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="B101" s="7" t="s">
         <v>170</v>
+      </c>
+      <c r="C101" s="7">
+        <v>50</v>
       </c>
       <c r="D101" s="7">
         <v>15</v>
@@ -3486,7 +3634,7 @@
       <c r="K101"/>
       <c r="L101"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" s="7">
         <v>2005</v>
       </c>
@@ -3512,9 +3660,12 @@
       <c r="K102"/>
       <c r="L102"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="B103" s="7" t="s">
         <v>171</v>
+      </c>
+      <c r="C103" s="7">
+        <v>51</v>
       </c>
       <c r="D103" s="7">
         <v>8</v>
@@ -3532,7 +3683,7 @@
       <c r="K103"/>
       <c r="L103"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" s="7">
         <v>2007</v>
       </c>
@@ -3558,9 +3709,12 @@
       <c r="K104"/>
       <c r="L104"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="B105" s="7" t="s">
         <v>172</v>
+      </c>
+      <c r="C105" s="7">
+        <v>52</v>
       </c>
       <c r="D105" s="7">
         <v>2</v>
@@ -3578,7 +3732,7 @@
       <c r="K105"/>
       <c r="L105"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" s="7">
         <v>2007</v>
       </c>
@@ -3604,9 +3758,12 @@
       <c r="K106"/>
       <c r="L106"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="B107" s="7" t="s">
         <v>173</v>
+      </c>
+      <c r="C107" s="7">
+        <v>53</v>
       </c>
       <c r="D107" s="7">
         <v>11</v>
@@ -3624,7 +3781,7 @@
       <c r="K107"/>
       <c r="L107"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="7">
         <v>1996</v>
       </c>
@@ -3650,9 +3807,12 @@
       <c r="K108"/>
       <c r="L108"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="B109" s="7" t="s">
         <v>174</v>
+      </c>
+      <c r="C109" s="7">
+        <v>54</v>
       </c>
       <c r="D109" s="7">
         <v>8</v>
@@ -3670,7 +3830,7 @@
       <c r="K109"/>
       <c r="L109"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="7">
         <v>2006</v>
       </c>
@@ -3696,9 +3856,12 @@
       <c r="K110"/>
       <c r="L110"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="B111" s="7" t="s">
         <v>175</v>
+      </c>
+      <c r="C111" s="7">
+        <v>55</v>
       </c>
       <c r="D111" s="7">
         <v>11</v>
@@ -3716,7 +3879,7 @@
       <c r="K111"/>
       <c r="L111"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="7">
         <v>2008</v>
       </c>
@@ -3742,9 +3905,12 @@
       <c r="K112"/>
       <c r="L112"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="B113" s="7" t="s">
         <v>175</v>
+      </c>
+      <c r="C113" s="7">
+        <v>56</v>
       </c>
       <c r="D113" s="7">
         <v>11</v>
@@ -3762,7 +3928,7 @@
       <c r="K113"/>
       <c r="L113"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="7">
         <v>2005</v>
       </c>
@@ -3788,9 +3954,12 @@
       <c r="K114"/>
       <c r="L114"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="B115" s="7" t="s">
         <v>176</v>
+      </c>
+      <c r="C115" s="7">
+        <v>57</v>
       </c>
       <c r="D115" s="7">
         <v>9</v>
@@ -3808,7 +3977,7 @@
       <c r="K115"/>
       <c r="L115"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="7">
         <v>1997</v>
       </c>
@@ -3834,9 +4003,12 @@
       <c r="K116"/>
       <c r="L116"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="B117" s="7" t="s">
         <v>177</v>
+      </c>
+      <c r="C117" s="7">
+        <v>58</v>
       </c>
       <c r="D117" s="7">
         <v>2</v>
@@ -3854,7 +4026,7 @@
       <c r="K117"/>
       <c r="L117"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="7">
         <v>1999</v>
       </c>
@@ -3880,9 +4052,12 @@
       <c r="K118"/>
       <c r="L118"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="B119" s="7" t="s">
         <v>177</v>
+      </c>
+      <c r="C119" s="7">
+        <v>59</v>
       </c>
       <c r="D119" s="7">
         <v>2</v>
@@ -3900,7 +4075,7 @@
       <c r="K119"/>
       <c r="L119"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="7">
         <v>1998</v>
       </c>
@@ -3926,9 +4101,12 @@
       <c r="K120"/>
       <c r="L120"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="B121" s="7" t="s">
         <v>178</v>
+      </c>
+      <c r="C121" s="7">
+        <v>60</v>
       </c>
       <c r="D121" s="7">
         <v>2</v>
@@ -3946,7 +4124,7 @@
       <c r="K121"/>
       <c r="L121"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="7" t="s">
         <v>202</v>
       </c>
@@ -3972,9 +4150,12 @@
       <c r="K122"/>
       <c r="L122"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="B123" s="7" t="s">
         <v>179</v>
+      </c>
+      <c r="C123" s="7">
+        <v>61</v>
       </c>
       <c r="D123" s="7">
         <v>2</v>
@@ -3992,7 +4173,7 @@
       <c r="K123"/>
       <c r="L123"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12">
       <c r="A124" s="7" t="s">
         <v>202</v>
       </c>
@@ -4018,9 +4199,12 @@
       <c r="K124"/>
       <c r="L124"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="B125" s="7" t="s">
         <v>180</v>
+      </c>
+      <c r="C125" s="7">
+        <v>62</v>
       </c>
       <c r="D125" s="7">
         <v>2</v>
@@ -4038,7 +4222,7 @@
       <c r="K125"/>
       <c r="L125"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" s="7" t="s">
         <v>202</v>
       </c>
@@ -4064,9 +4248,12 @@
       <c r="K126"/>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="B127" s="7" t="s">
         <v>181</v>
+      </c>
+      <c r="C127" s="7">
+        <v>63</v>
       </c>
       <c r="D127" s="7">
         <v>3</v>
@@ -4084,7 +4271,7 @@
       <c r="K127"/>
       <c r="L127"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" s="7" t="s">
         <v>202</v>
       </c>
@@ -4110,9 +4297,12 @@
       <c r="K128"/>
       <c r="L128"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="B129" s="7" t="s">
         <v>182</v>
+      </c>
+      <c r="C129" s="7">
+        <v>64</v>
       </c>
       <c r="D129" s="7">
         <v>7</v>
@@ -4130,7 +4320,7 @@
       <c r="K129"/>
       <c r="L129"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130" s="7" t="s">
         <v>202</v>
       </c>
@@ -4156,9 +4346,12 @@
       <c r="K130"/>
       <c r="L130"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="B131" s="7" t="s">
         <v>183</v>
+      </c>
+      <c r="C131" s="7">
+        <v>65</v>
       </c>
       <c r="D131" s="7">
         <v>7</v>
@@ -4176,7 +4369,7 @@
       <c r="K131"/>
       <c r="L131"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12">
       <c r="A132" s="7" t="s">
         <v>202</v>
       </c>
@@ -4202,9 +4395,12 @@
       <c r="K132"/>
       <c r="L132"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="B133" s="7" t="s">
         <v>184</v>
+      </c>
+      <c r="C133" s="7">
+        <v>66</v>
       </c>
       <c r="D133" s="7">
         <v>2</v>
@@ -4222,7 +4418,7 @@
       <c r="K133"/>
       <c r="L133"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" s="7" t="s">
         <v>202</v>
       </c>
@@ -4248,9 +4444,12 @@
       <c r="K134"/>
       <c r="L134"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="B135" s="7" t="s">
         <v>185</v>
+      </c>
+      <c r="C135" s="7">
+        <v>67</v>
       </c>
       <c r="D135" s="7">
         <v>3</v>
@@ -4268,7 +4467,7 @@
       <c r="K135"/>
       <c r="L135"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="A136" s="7">
         <v>1997</v>
       </c>
@@ -4294,9 +4493,12 @@
       <c r="K136"/>
       <c r="L136"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="B137" s="7" t="s">
         <v>125</v>
+      </c>
+      <c r="C137" s="7">
+        <v>68</v>
       </c>
       <c r="D137" s="7">
         <v>3</v>
@@ -4314,7 +4516,7 @@
       <c r="K137"/>
       <c r="L137"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" s="7">
         <v>2002</v>
       </c>
@@ -4340,9 +4542,12 @@
       <c r="K138"/>
       <c r="L138"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="B139" s="7" t="s">
         <v>186</v>
+      </c>
+      <c r="C139" s="7">
+        <v>69</v>
       </c>
       <c r="D139" s="7">
         <v>6</v>
@@ -4360,7 +4565,7 @@
       <c r="K139"/>
       <c r="L139"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" s="7">
         <v>2006</v>
       </c>
@@ -4386,9 +4591,12 @@
       <c r="K140"/>
       <c r="L140"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="B141" s="7" t="s">
         <v>186</v>
+      </c>
+      <c r="C141" s="7">
+        <v>70</v>
       </c>
       <c r="D141" s="7">
         <v>2</v>
@@ -4406,7 +4614,7 @@
       <c r="K141"/>
       <c r="L141"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" s="7">
         <v>2002</v>
       </c>
@@ -4432,9 +4640,12 @@
       <c r="K142"/>
       <c r="L142"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="B143" s="7" t="s">
         <v>187</v>
+      </c>
+      <c r="C143" s="7">
+        <v>71</v>
       </c>
       <c r="D143" s="7">
         <v>2</v>
@@ -4452,7 +4663,7 @@
       <c r="K143"/>
       <c r="L143"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" s="7" t="s">
         <v>202</v>
       </c>
@@ -4478,9 +4689,12 @@
       <c r="K144"/>
       <c r="L144"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12">
       <c r="B145" s="7" t="s">
         <v>188</v>
+      </c>
+      <c r="C145" s="7">
+        <v>72</v>
       </c>
       <c r="D145" s="7">
         <v>13</v>
@@ -4498,7 +4712,7 @@
       <c r="K145"/>
       <c r="L145"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12">
       <c r="A146" s="7">
         <v>2006</v>
       </c>
@@ -4524,9 +4738,12 @@
       <c r="K146"/>
       <c r="L146"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="B147" s="7" t="s">
         <v>189</v>
+      </c>
+      <c r="C147" s="7">
+        <v>73</v>
       </c>
       <c r="D147" s="7">
         <v>7</v>
@@ -4544,7 +4761,7 @@
       <c r="K147"/>
       <c r="L147"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12">
       <c r="A148" s="7">
         <v>1999</v>
       </c>
@@ -4570,9 +4787,12 @@
       <c r="K148"/>
       <c r="L148"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="B149" s="7" t="s">
         <v>190</v>
+      </c>
+      <c r="C149" s="7">
+        <v>74</v>
       </c>
       <c r="D149" s="7">
         <v>2</v>
@@ -4590,7 +4810,7 @@
       <c r="K149"/>
       <c r="L149"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" s="7">
         <v>2005</v>
       </c>
@@ -4616,9 +4836,12 @@
       <c r="K150"/>
       <c r="L150"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12">
       <c r="B151" s="7" t="s">
         <v>191</v>
+      </c>
+      <c r="C151" s="7">
+        <v>75</v>
       </c>
       <c r="D151" s="7">
         <v>7</v>
@@ -4636,7 +4859,7 @@
       <c r="K151"/>
       <c r="L151"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="A152" s="7">
         <v>1997</v>
       </c>
@@ -4662,9 +4885,12 @@
       <c r="K152"/>
       <c r="L152"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12">
       <c r="B153" s="7" t="s">
         <v>123</v>
+      </c>
+      <c r="C153" s="7">
+        <v>76</v>
       </c>
       <c r="D153" s="7">
         <v>2</v>
@@ -4682,7 +4908,7 @@
       <c r="K153"/>
       <c r="L153"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12">
       <c r="A154" s="7">
         <v>1993</v>
       </c>
@@ -4708,9 +4934,12 @@
       <c r="K154"/>
       <c r="L154"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12">
       <c r="B155" s="7" t="s">
         <v>124</v>
+      </c>
+      <c r="C155" s="7">
+        <v>77</v>
       </c>
       <c r="D155" s="7">
         <v>3</v>
@@ -4728,7 +4957,7 @@
       <c r="K155"/>
       <c r="L155"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12">
       <c r="A156" s="7">
         <v>1998</v>
       </c>
@@ -4754,9 +4983,12 @@
       <c r="K156"/>
       <c r="L156"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12">
       <c r="B157" s="7" t="s">
         <v>192</v>
+      </c>
+      <c r="C157" s="7">
+        <v>78</v>
       </c>
       <c r="D157" s="7">
         <v>12</v>
@@ -4774,7 +5006,7 @@
       <c r="K157"/>
       <c r="L157"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="A158" s="7">
         <v>2000</v>
       </c>
@@ -4800,9 +5032,12 @@
       <c r="K158"/>
       <c r="L158"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="B159" s="7" t="s">
         <v>193</v>
+      </c>
+      <c r="C159" s="7">
+        <v>79</v>
       </c>
       <c r="D159" s="7">
         <v>2</v>
@@ -4820,7 +5055,7 @@
       <c r="K159"/>
       <c r="L159"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" s="7">
         <v>2002</v>
       </c>
@@ -4846,9 +5081,12 @@
       <c r="K160"/>
       <c r="L160"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="B161" s="7" t="s">
         <v>126</v>
+      </c>
+      <c r="C161" s="7">
+        <v>80</v>
       </c>
       <c r="D161" s="7">
         <v>12</v>
@@ -4866,7 +5104,7 @@
       <c r="K161"/>
       <c r="L161"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12">
       <c r="A162" s="7">
         <v>2007</v>
       </c>
@@ -4892,9 +5130,12 @@
       <c r="K162"/>
       <c r="L162"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="B163" s="7" t="s">
         <v>194</v>
+      </c>
+      <c r="C163" s="7">
+        <v>81</v>
       </c>
       <c r="D163" s="7">
         <v>7</v>
@@ -4912,7 +5153,7 @@
       <c r="K163"/>
       <c r="L163"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" s="7">
         <v>2005</v>
       </c>
@@ -4938,9 +5179,12 @@
       <c r="K164"/>
       <c r="L164"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="B165" s="7" t="s">
         <v>195</v>
+      </c>
+      <c r="C165" s="7">
+        <v>82</v>
       </c>
       <c r="D165" s="7">
         <v>6</v>
@@ -4958,7 +5202,7 @@
       <c r="K165"/>
       <c r="L165"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="7">
         <v>2003</v>
       </c>
@@ -4984,9 +5228,12 @@
       <c r="K166"/>
       <c r="L166"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="B167" s="7" t="s">
         <v>196</v>
+      </c>
+      <c r="C167" s="7">
+        <v>83</v>
       </c>
       <c r="D167" s="7">
         <v>6</v>
@@ -5004,7 +5251,7 @@
       <c r="K167"/>
       <c r="L167"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" s="7">
         <v>2007</v>
       </c>
@@ -5030,9 +5277,12 @@
       <c r="K168"/>
       <c r="L168"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="B169" s="7" t="s">
         <v>196</v>
+      </c>
+      <c r="C169" s="7">
+        <v>84</v>
       </c>
       <c r="D169" s="7">
         <v>11</v>
@@ -5050,7 +5300,7 @@
       <c r="K169"/>
       <c r="L169"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" s="7">
         <v>1998</v>
       </c>
@@ -5076,9 +5326,12 @@
       <c r="K170"/>
       <c r="L170"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="B171" s="7" t="s">
         <v>197</v>
+      </c>
+      <c r="C171" s="7">
+        <v>85</v>
       </c>
       <c r="D171" s="7">
         <v>6</v>
@@ -5096,7 +5349,7 @@
       <c r="K171"/>
       <c r="L171"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172" s="7">
         <v>2006</v>
       </c>
@@ -5122,9 +5375,12 @@
       <c r="K172"/>
       <c r="L172"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="B173" s="7" t="s">
         <v>198</v>
+      </c>
+      <c r="C173" s="7">
+        <v>86</v>
       </c>
       <c r="D173" s="7">
         <v>17</v>
@@ -5142,7 +5398,7 @@
       <c r="K173"/>
       <c r="L173"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="A174" s="7">
         <v>2007</v>
       </c>
@@ -5168,9 +5424,12 @@
       <c r="K174"/>
       <c r="L174"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="B175" s="7" t="s">
         <v>199</v>
+      </c>
+      <c r="C175" s="7">
+        <v>87</v>
       </c>
       <c r="D175" s="7">
         <v>5</v>
@@ -5195,14 +5454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -5213,7 +5472,7 @@
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5242,7 +5501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -5271,7 +5530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -5300,7 +5559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5329,7 +5588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5358,7 +5617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -5387,7 +5646,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -5416,7 +5675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -5445,7 +5704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -5474,7 +5733,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -5503,7 +5762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -5532,7 +5791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -5561,7 +5820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -5590,7 +5849,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -5619,7 +5878,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -5648,7 +5907,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -5677,7 +5936,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -5706,7 +5965,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -5729,7 +5988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -5752,7 +6011,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5775,7 +6034,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -5798,7 +6057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -5821,7 +6080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -5844,7 +6103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -5867,7 +6126,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -5890,7 +6149,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5913,7 +6172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -5936,7 +6195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5959,7 +6218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5982,7 +6241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -6005,7 +6264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -6028,7 +6287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -6051,7 +6310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -6074,7 +6333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -6097,7 +6356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -6120,7 +6379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -6143,7 +6402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -6166,7 +6425,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -6189,7 +6448,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -6212,7 +6471,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -6235,7 +6494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -6258,7 +6517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -6281,7 +6540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -6304,7 +6563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -6327,7 +6586,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -6350,7 +6609,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -6373,7 +6632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -6396,7 +6655,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -6419,7 +6678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -6442,7 +6701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -6465,7 +6724,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -6488,7 +6747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -6511,7 +6770,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -6534,7 +6793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -6557,7 +6816,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -6580,7 +6839,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -6603,7 +6862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -6626,7 +6885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -6649,7 +6908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -6672,7 +6931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -6695,7 +6954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -6718,7 +6977,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -6741,7 +7000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -6764,7 +7023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -6787,7 +7046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -6810,7 +7069,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -6833,7 +7092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -6856,7 +7115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -6879,7 +7138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -6902,7 +7161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -6925,7 +7184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -6948,7 +7207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -6971,7 +7230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -6994,7 +7253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -7017,7 +7276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -7040,7 +7299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -7063,7 +7322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -7086,7 +7345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -7109,7 +7368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -7132,7 +7391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -7155,7 +7414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -7178,7 +7437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -7201,7 +7460,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -7224,7 +7483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>70</v>
       </c>
@@ -7247,7 +7506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -7270,7 +7529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -7293,7 +7552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -7316,7 +7575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -7351,14 +7610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
